--- a/ch4-spreadsheets/res/formulas_start.xlsx
+++ b/ch4-spreadsheets/res/formulas_start.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills" sheetId="2" r:id="rId1"/>
+    <sheet name="Requisition" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Summer Barbecue</t>
   </si>
   <si>
-    <t>Meat Purchase Requisition</t>
-  </si>
-  <si>
     <t>Pork Shoulder Roast (5lb)</t>
   </si>
   <si>
@@ -66,17 +64,77 @@
   </si>
   <si>
     <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Requisition: Meat Purchase</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Monthly Bills</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +172,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -128,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,35 +244,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="4" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,6 +301,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B826E3D-45A5-4F53-BD48-8213C78E8827}" name="Table1" displayName="Table1" ref="A2:N7">
+  <autoFilter ref="A2:N7" xr:uid="{F14F53C2-34B1-4C0F-905C-DDEBA7A4458C}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{19B09497-041F-4D74-A89C-0D0C7C0B1B7A}" name="Bill" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{EE0220B4-ACF9-4E0A-AF6B-24D71AF837B2}" name="Jan"/>
+    <tableColumn id="3" xr3:uid="{28BA63E9-A639-46A7-B2D0-8DDD71A282CD}" name="Feb"/>
+    <tableColumn id="4" xr3:uid="{9044F1CC-1E1E-4FEC-B0A2-F3005355981C}" name="Mar"/>
+    <tableColumn id="5" xr3:uid="{49BAFD75-6991-4004-8BD7-38BEAF3DDFF6}" name="Apr"/>
+    <tableColumn id="6" xr3:uid="{297CA052-F6BB-438B-8430-94807CE8EA05}" name="May"/>
+    <tableColumn id="7" xr3:uid="{F3DA27F2-8C82-4E3A-B17B-BE88D6119383}" name="Jun"/>
+    <tableColumn id="8" xr3:uid="{770556BF-278B-49A5-8A6D-11E1D2908A97}" name="Jul"/>
+    <tableColumn id="9" xr3:uid="{0E6E8765-B703-4260-9C69-0D6DAD79C2AA}" name="Aug"/>
+    <tableColumn id="10" xr3:uid="{AC070674-4EC4-4CF0-AA8F-51DA8C7DCADD}" name="Sep"/>
+    <tableColumn id="11" xr3:uid="{4D900589-EFE1-4344-98E8-03CC731AA840}" name="Oct"/>
+    <tableColumn id="12" xr3:uid="{CCED59E6-BC59-46D5-84C2-70BC3395F583}" name="Nov"/>
+    <tableColumn id="13" xr3:uid="{BB8A6E67-AC42-41CF-A6F9-F6361C55D241}" name="Dec"/>
+    <tableColumn id="14" xr3:uid="{981CCFA3-5CD3-49CB-ACA5-A85814B39656}" name="TOTALS" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,11 +622,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6379D3-C1A5-498A-8FB6-D3877CA0B835}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>231</v>
+      </c>
+      <c r="C3">
+        <v>312</v>
+      </c>
+      <c r="D3">
+        <v>198</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="L3">
+        <v>160</v>
+      </c>
+      <c r="M3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>34</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>224</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>204</v>
+      </c>
+      <c r="E6">
+        <v>190</v>
+      </c>
+      <c r="F6">
+        <v>165</v>
+      </c>
+      <c r="G6">
+        <v>170</v>
+      </c>
+      <c r="H6">
+        <v>230</v>
+      </c>
+      <c r="I6">
+        <v>245</v>
+      </c>
+      <c r="J6">
+        <v>182</v>
+      </c>
+      <c r="K6">
+        <v>170</v>
+      </c>
+      <c r="L6">
+        <v>166</v>
+      </c>
+      <c r="M6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +898,7 @@
       <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="9"/>
@@ -539,100 +906,100 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
